--- a/Documentation/Pokemon_learnset_rebalance/083_Farfetchd.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/083_Farfetchd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197E4DAE-E6DD-4DE7-929C-C3AE03DE12DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E94838-517B-454E-8561-DC9CE3B388A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,9 +366,6 @@
     <t>Leer</t>
   </si>
   <si>
-    <t>Peck</t>
-  </si>
-  <si>
     <t>Sand-Attack</t>
   </si>
   <si>
@@ -400,6 +397,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Wing Attack</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -784,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -792,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -809,7 +809,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -826,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -843,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -860,7 +860,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -877,7 +877,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -894,7 +894,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -908,7 +908,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -922,7 +922,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -936,7 +936,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -945,7 +945,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -964,7 +964,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.35">
@@ -1050,7 +1050,7 @@
         <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.35">
@@ -1093,7 +1093,7 @@
         <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.35">
@@ -1184,7 +1184,7 @@
         <v>91</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.35">
@@ -1195,7 +1195,7 @@
         <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.35">
